--- a/ExcelConfig/Backgrounds.xlsx
+++ b/ExcelConfig/Backgrounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64131141-B9B1-4144-A573-96D301ED4B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E370C-E6FC-4405-BADD-F4EAF1B737A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
             <v>1</v>
           </cell>
           <cell r="C2">
-            <v>1000</v>
+            <v>999</v>
           </cell>
           <cell r="D2">
             <v>1000</v>
@@ -218,13 +218,13 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Top</v>
+            <v>Roofs</v>
           </cell>
           <cell r="B3">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="C3">
-            <v>2000</v>
+            <v>1999</v>
           </cell>
           <cell r="D3">
             <v>1000</v>
@@ -232,13 +232,13 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Wall</v>
+            <v>Walls</v>
           </cell>
           <cell r="B4">
-            <v>2001</v>
+            <v>2000</v>
           </cell>
           <cell r="C4">
-            <v>3000</v>
+            <v>2999</v>
           </cell>
           <cell r="D4">
             <v>1000</v>
@@ -246,13 +246,13 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Ring</v>
+            <v>Rings</v>
           </cell>
           <cell r="B5">
-            <v>3001</v>
+            <v>3000</v>
           </cell>
           <cell r="C5">
-            <v>4000</v>
+            <v>3999</v>
           </cell>
           <cell r="D5">
             <v>1000</v>
@@ -260,13 +260,13 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Grounds</v>
+            <v>Floors</v>
           </cell>
           <cell r="B6">
-            <v>4001</v>
+            <v>4000</v>
           </cell>
           <cell r="C6">
-            <v>5000</v>
+            <v>4999</v>
           </cell>
           <cell r="D6">
             <v>1000</v>
@@ -274,13 +274,13 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Under</v>
+            <v>Terrains</v>
           </cell>
           <cell r="B7">
-            <v>5001</v>
+            <v>5000</v>
           </cell>
           <cell r="C7">
-            <v>6000</v>
+            <v>5999</v>
           </cell>
           <cell r="D7">
             <v>1000</v>
@@ -291,13 +291,27 @@
             <v>Spheres</v>
           </cell>
           <cell r="B8">
-            <v>6001</v>
+            <v>6000</v>
           </cell>
           <cell r="C8">
-            <v>7000</v>
+            <v>6999</v>
           </cell>
           <cell r="D8">
             <v>1000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Buildings</v>
+          </cell>
+          <cell r="B9">
+            <v>10001</v>
+          </cell>
+          <cell r="C9">
+            <v>20000</v>
+          </cell>
+          <cell r="D9">
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
@@ -583,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA664161-30B2-4144-B387-AF7DE78A9BA4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +704,7 @@
       </c>
       <c r="C2">
         <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,3,FALSE)</f>
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
